--- a/archivos/archivo.xlsx
+++ b/archivos/archivo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoja\Desktop\universidad\8 semestre\scrum\eneagrama\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoja\Desktop\universidad\8 semestre\scrum\eneagrama\Eneagrama\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A91D9C-F4F1-406F-A10B-9E9141B2DBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F593523A-0DF0-4048-A2AE-0BE74683976F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="2208" windowWidth="10104" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -383,42 +385,42 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">

--- a/archivos/archivo.xlsx
+++ b/archivos/archivo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoja\Desktop\universidad\8 semestre\scrum\eneagrama\Eneagrama\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F593523A-0DF0-4048-A2AE-0BE74683976F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D8B09D-98F0-42B4-8741-0173B2985518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="2208" windowWidth="10104" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -368,7 +368,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,8 +420,11 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P16" s="1"/>
